--- a/HT5.xlsx
+++ b/HT5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\UVG\Algoritmos y Estructuras de Datos\HT5-Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9624240F-9AE3-4633-8E2D-30053853C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE26D6-C320-444E-945F-22B9B95C0ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{48DF9653-A0BD-48A2-87C8-642E8C7B7279}"/>
   </bookViews>
@@ -95,17 +95,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -127,12 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +200,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion1 </a:t>
+              <a:t>Simulacion1 (10) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6102,9 +6117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6137,15 +6152,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
+      <xdr:colOff>498475</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6630,7 +6645,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6640,9 +6655,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -6693,15 +6709,18 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f>STDEV(C4:C8)</f>
         <v>0.48347769457338291</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6712,8 +6731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5FC73F-9613-4534-98F3-1E55145EC61E}">
   <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6722,9 +6741,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -6775,18 +6795,19 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f>STDEV(C4:C8)</f>
         <v>0.80311303260227285</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -6837,15 +6858,19 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <f>STDEV(C14:C18)</f>
         <v>0.96576161525622117</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6855,8 +6880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E824484-9EC6-4DA4-9242-6B436F066958}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6865,9 +6890,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -6918,21 +6944,22 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f>STDEV(C4:C8)</f>
         <v>0.83113581488551835</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="M10" s="4"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
@@ -6983,18 +7010,19 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <f>STDEV(C15:C19)</f>
         <v>0.91528654047840863</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
@@ -7045,15 +7073,20 @@
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <f>STDEV(C25:C29)</f>
         <v>0.94226139491783278</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HT5.xlsx
+++ b/HT5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\UVG\Algoritmos y Estructuras de Datos\HT5-Algoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE26D6-C320-444E-945F-22B9B95C0ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500837F4-A04E-4562-964A-A321F8B79505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{48DF9653-A0BD-48A2-87C8-642E8C7B7279}"/>
   </bookViews>
@@ -200,7 +200,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion1 (10) </a:t>
+              <a:t>Simulacion1 (Intervalo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -663,7 +671,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion2 (5)</a:t>
+              <a:t>Simulacion2 (INTERVALO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1127,7 +1143,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion2 (1)</a:t>
+              <a:t>Simulacion2 (INTERVALO 1)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1591,7 +1607,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion3 (10)</a:t>
+              <a:t>Simulacion3 (INTERVALO 10)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2055,7 +2071,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion3 (5)</a:t>
+              <a:t>Simulacion3 (INTERVALO 5)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2519,7 +2535,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Simulacion3 (1)</a:t>
+              <a:t>Simulacion3 (INTERVALO 1)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6306,16 +6322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6645,7 +6661,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6731,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5FC73F-9613-4534-98F3-1E55145EC61E}">
   <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6880,8 +6896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E824484-9EC6-4DA4-9242-6B436F066958}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
